--- a/Python/financial_report.xlsx
+++ b/Python/financial_report.xlsx
@@ -18,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,24 +442,30 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>288055.4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>275378.7</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12676.70000000001</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>year_month</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>income</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>balance</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -458,38 +476,38 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>269015</v>
+        <v>288745.4</v>
       </c>
       <c r="D4" t="n">
-        <v>261639.1</v>
+        <v>274688.7</v>
       </c>
       <c r="E4" t="n">
-        <v>7375.899999999994</v>
+        <v>14056.70000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>257151.8</v>
+        <v>269765</v>
       </c>
       <c r="D5" t="n">
-        <v>260449.9</v>
+        <v>260889.1</v>
       </c>
       <c r="E5" t="n">
-        <v>-3298.100000000006</v>
+        <v>8875.899999999994</v>
       </c>
     </row>
     <row r="6">
@@ -500,38 +518,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>269635</v>
+        <v>257151.8</v>
       </c>
       <c r="D6" t="n">
-        <v>261688.4</v>
+        <v>260449.9</v>
       </c>
       <c r="E6" t="n">
-        <v>7946.600000000006</v>
+        <v>-3298.100000000006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>301308.6</v>
+        <v>269635</v>
       </c>
       <c r="D7" t="n">
-        <v>295476.4</v>
+        <v>261688.4</v>
       </c>
       <c r="E7" t="n">
-        <v>5832.199999999953</v>
+        <v>7946.600000000006</v>
       </c>
     </row>
     <row r="8">
@@ -542,16 +560,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>301308.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>295476.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5832.199999999953</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>286380</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>283754.3</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>2625.700000000012</v>
       </c>
     </row>
@@ -566,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,23 +621,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-01</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>income_commissions</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5955.4</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>year_month</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -614,11 +655,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>income_operations</t>
+          <t>income_commissions</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>282100</v>
+        <v>5955.4</v>
       </c>
     </row>
     <row r="5">
@@ -634,11 +675,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>outcome_commissions</t>
+          <t>income_operations</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3821.7</v>
+        <v>282100</v>
       </c>
     </row>
     <row r="6">
@@ -654,11 +695,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>outcome_operations</t>
+          <t>outcome_commissions</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>271390</v>
+        <v>3821.7</v>
       </c>
     </row>
     <row r="7">
@@ -674,11 +715,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>outcome_service_banks</t>
+          <t>outcome_operations</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>87</v>
+        <v>270700</v>
       </c>
     </row>
     <row r="8">
@@ -689,16 +730,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>income_commissions</t>
+          <t>outcome_service_banks</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6415</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -714,11 +755,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>income_operations</t>
+          <t>income_commissions</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>262600</v>
+        <v>6415</v>
       </c>
     </row>
     <row r="10">
@@ -734,11 +775,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>outcome_commissions</t>
+          <t>income_operations</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4079.1</v>
+        <v>262600</v>
       </c>
     </row>
     <row r="11">
@@ -754,11 +795,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>outcome_operations</t>
+          <t>outcome_commissions</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>257350</v>
+        <v>4079.1</v>
       </c>
     </row>
     <row r="12">
@@ -774,31 +815,31 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>outcome_service_banks</t>
+          <t>outcome_operations</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>110</v>
+        <v>256600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>income_commissions</t>
+          <t>outcome_service_banks</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5651.8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -814,11 +855,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>income_operations</t>
+          <t>income_commissions</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>251500</v>
+        <v>5651.8</v>
       </c>
     </row>
     <row r="15">
@@ -834,11 +875,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>outcome_commissions</t>
+          <t>income_operations</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3382.9</v>
+        <v>251500</v>
       </c>
     </row>
     <row r="16">
@@ -854,11 +895,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>outcome_operations</t>
+          <t>outcome_commissions</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>256900</v>
+        <v>3382.9</v>
       </c>
     </row>
     <row r="17">
@@ -874,11 +915,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>outcome_service_banks</t>
+          <t>outcome_operations</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>87</v>
+        <v>256900</v>
       </c>
     </row>
     <row r="18">
@@ -889,16 +930,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>income_commissions</t>
+          <t>outcome_service_banks</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6435</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19">
@@ -914,11 +955,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>income_operations</t>
+          <t>income_commissions</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>263200</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="20">
@@ -934,11 +975,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>outcome_commissions</t>
+          <t>income_operations</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4078.4</v>
+        <v>263200</v>
       </c>
     </row>
     <row r="21">
@@ -954,11 +995,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>outcome_operations</t>
+          <t>outcome_commissions</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>257400</v>
+        <v>4078.4</v>
       </c>
     </row>
     <row r="22">
@@ -974,31 +1015,31 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>outcome_service_banks</t>
+          <t>outcome_operations</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>110</v>
+        <v>257400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>income_commissions</t>
+          <t>outcome_service_banks</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6408.599999999999</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -1014,11 +1055,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>income_operations</t>
+          <t>income_commissions</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>294900</v>
+        <v>6408.599999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1034,11 +1075,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>outcome_commissions</t>
+          <t>income_operations</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4009.4</v>
+        <v>294900</v>
       </c>
     </row>
     <row r="26">
@@ -1054,11 +1095,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>outcome_operations</t>
+          <t>outcome_commissions</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>291300</v>
+        <v>4009.4</v>
       </c>
     </row>
     <row r="27">
@@ -1074,11 +1115,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>outcome_service_banks</t>
+          <t>outcome_operations</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>87</v>
+        <v>291300</v>
       </c>
     </row>
     <row r="28">
@@ -1089,16 +1130,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>income_commissions</t>
+          <t>outcome_service_banks</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6980</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -1114,11 +1155,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>income_operations</t>
+          <t>income_commissions</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>279400</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="30">
@@ -1134,11 +1175,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>outcome_commissions</t>
+          <t>income_operations</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4344.3</v>
+        <v>279400</v>
       </c>
     </row>
     <row r="31">
@@ -1154,11 +1195,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>outcome_operations</t>
+          <t>outcome_commissions</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>279200</v>
+        <v>4344.3</v>
       </c>
     </row>
     <row r="32">
@@ -1174,10 +1215,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>outcome_operations</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>279200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>outcome_service_banks</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>110</v>
       </c>
     </row>
